--- a/AnaliseComplexidade/grafico_Processos_5.5.xlsx
+++ b/AnaliseComplexidade/grafico_Processos_5.5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Exibir</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>Organizar Nome</t>
+  </si>
+  <si>
+    <t>Diferença %</t>
+  </si>
+  <si>
+    <t>Diferença entre anterior e atual</t>
   </si>
 </sst>
 </file>
@@ -46,15 +52,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,11 +74,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -81,6 +108,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,11 +271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43130880"/>
-        <c:axId val="95541440"/>
+        <c:axId val="97017856"/>
+        <c:axId val="65196544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43130880"/>
+        <c:axId val="97017856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -249,7 +285,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95541440"/>
+        <c:crossAx val="65196544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -257,7 +293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95541440"/>
+        <c:axId val="65196544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="700"/>
@@ -288,7 +324,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43130880"/>
+        <c:crossAx val="97017856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -633,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D49"/>
+  <dimension ref="A2:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F4" sqref="F4:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,12 +682,20 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10000</v>
       </c>
@@ -659,9 +703,9 @@
         <v>3.37</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20000</v>
       </c>
@@ -672,12 +716,12 @@
         <f>(100*B4)/B3</f>
         <v>517.53709198813056</v>
       </c>
-      <c r="D4" s="3">
-        <f>C4-0</f>
-        <v>517.53709198813056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="9">
+        <f>B4-0</f>
+        <v>17.440999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>30000</v>
       </c>
@@ -685,15 +729,15 @@
         <v>50.31</v>
       </c>
       <c r="C5" s="3">
-        <f>(100*B5)/B3</f>
-        <v>1492.8783382789318</v>
-      </c>
-      <c r="D5" s="3">
-        <f>C5-C4</f>
-        <v>975.34124629080122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(100*B5)/B4</f>
+        <v>288.45823060604323</v>
+      </c>
+      <c r="D5" s="9">
+        <f>B5-B4</f>
+        <v>32.869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40000</v>
       </c>
@@ -701,15 +745,15 @@
         <v>102.07899999999999</v>
       </c>
       <c r="C6" s="3">
-        <f>(100*B6)/B3</f>
-        <v>3029.0504451038573</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D9" si="0">C6-C5</f>
-        <v>1536.1721068249255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(100*B6)/B5</f>
+        <v>202.90001987676405</v>
+      </c>
+      <c r="D6" s="9">
+        <f>B6-B5</f>
+        <v>51.768999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>50000</v>
       </c>
@@ -717,15 +761,15 @@
         <v>189.95099999999999</v>
       </c>
       <c r="C7" s="3">
-        <f>(100*B7)/B3</f>
-        <v>5636.5281899109787</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>2607.4777448071213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(100*B7)/B6</f>
+        <v>186.08234798538388</v>
+      </c>
+      <c r="D7" s="9">
+        <f>B7-B6</f>
+        <v>87.872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>60000</v>
       </c>
@@ -733,15 +777,15 @@
         <v>306.709</v>
       </c>
       <c r="C8" s="3">
-        <f>(100*B8)/B3</f>
-        <v>9101.1572700296729</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>3464.6290801186942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(100*B8)/B7</f>
+        <v>161.46743107432971</v>
+      </c>
+      <c r="D8" s="9">
+        <f>B8-B7</f>
+        <v>116.75800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>70000</v>
       </c>
@@ -749,32 +793,43 @@
         <v>444.47800000000001</v>
       </c>
       <c r="C9" s="3">
-        <f>(100*B9)/B3</f>
-        <v>13189.258160237388</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>4088.1008902077156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(100*B9)/B8</f>
+        <v>144.9184732107633</v>
+      </c>
+      <c r="D9" s="9">
+        <f>B9-B8</f>
+        <v>137.76900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>80000</v>
       </c>
       <c r="B10" s="3">
         <v>604.41999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <f>(100*B10)/B9</f>
+        <v>135.98423319039409</v>
+      </c>
+      <c r="D10" s="9">
+        <f>B10-B9</f>
+        <v>159.94199999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10000</v>
       </c>
@@ -784,7 +839,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>20000</v>
       </c>
@@ -796,8 +851,8 @@
         <v>557.93025871766031</v>
       </c>
       <c r="D16" s="3">
-        <f>C16-0</f>
-        <v>557.93025871766031</v>
+        <f>B16-0</f>
+        <v>4.96</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,12 +863,12 @@
         <v>13.541</v>
       </c>
       <c r="C17" s="3">
-        <f>(100*B17)/B15</f>
-        <v>1523.1721034870643</v>
+        <f>(100*B17)/B16</f>
+        <v>273.00403225806457</v>
       </c>
       <c r="D17" s="3">
-        <f>C17-C16</f>
-        <v>965.241844769404</v>
+        <f>B17-B16</f>
+        <v>8.5809999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,12 +879,12 @@
         <v>24.78</v>
       </c>
       <c r="C18" s="3">
-        <f>(100*B18)/B15</f>
-        <v>2787.4015748031497</v>
+        <f>(100*B18)/B17</f>
+        <v>182.99977845063142</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:D20" si="1">C18-C17</f>
-        <v>1264.2294713160854</v>
+        <f>B18-B17</f>
+        <v>11.239000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,12 +895,12 @@
         <v>48.965000000000003</v>
       </c>
       <c r="C19" s="3">
-        <f>(100*B19)/B15</f>
-        <v>5507.8740157480315</v>
+        <f>(100*B19)/B18</f>
+        <v>197.59887005649716</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="1"/>
-        <v>2720.4724409448818</v>
+        <f t="shared" ref="D19:D22" si="0">B19-B18</f>
+        <v>24.185000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,12 +911,12 @@
         <v>86.545000000000002</v>
       </c>
       <c r="C20" s="3">
-        <f>(100*B20)/B15</f>
-        <v>9735.0956130483683</v>
+        <f>(100*B20)/B19</f>
+        <v>176.74869804962728</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="1"/>
-        <v>4227.2215973003367</v>
+        <f t="shared" si="0"/>
+        <v>37.58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -872,12 +927,12 @@
         <v>131.93799999999999</v>
       </c>
       <c r="C21" s="3">
-        <f>(100*B21)/B15</f>
-        <v>14841.169853768279</v>
+        <f>(100*B21)/B20</f>
+        <v>152.45017043156739</v>
       </c>
       <c r="D21" s="3">
-        <f>C21-C20</f>
-        <v>5106.0742407199104</v>
+        <f t="shared" si="0"/>
+        <v>45.392999999999986</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -887,11 +942,22 @@
       <c r="B22" s="3">
         <v>185.61500000000001</v>
       </c>
+      <c r="C22" s="3">
+        <f>(100*B22)/B21</f>
+        <v>140.68350285740274</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>53.677000000000021</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C26" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -915,8 +981,8 @@
         <v>515.76805696846384</v>
       </c>
       <c r="D28" s="3">
-        <f>C28-0</f>
-        <v>515.76805696846384</v>
+        <f>B28-0</f>
+        <v>5.07</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,12 +993,12 @@
         <v>13.01</v>
       </c>
       <c r="C29" s="3">
-        <f>(100*B29)/B27</f>
-        <v>1323.4994913530011</v>
+        <f>(100*B29)/B28</f>
+        <v>256.60749506903352</v>
       </c>
       <c r="D29" s="3">
-        <f>C29-C28</f>
-        <v>807.73143438453724</v>
+        <f>B29-B28</f>
+        <v>7.9399999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,12 +1009,12 @@
         <v>24.558</v>
       </c>
       <c r="C30" s="3">
-        <f>(100*B30)/B27</f>
-        <v>2498.2706002034588</v>
+        <f>(100*B30)/B29</f>
+        <v>188.76249039200616</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ref="D30:D33" si="2">C30-C29</f>
-        <v>1174.7711088504577</v>
+        <f>B30-B29</f>
+        <v>11.548</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -959,12 +1025,12 @@
         <v>49.057000000000002</v>
       </c>
       <c r="C31" s="3">
-        <f>(100*B31)/B27</f>
-        <v>4990.5391658189219</v>
+        <f>(100*B31)/B30</f>
+        <v>199.75975242283573</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="2"/>
-        <v>2492.2685656154631</v>
+        <f t="shared" ref="D31:D34" si="1">B31-B30</f>
+        <v>24.499000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,12 +1041,12 @@
         <v>86.838999999999999</v>
       </c>
       <c r="C32" s="3">
-        <f>(100*B32)/B27</f>
-        <v>8834.0793489318403</v>
+        <f>(100*B32)/B31</f>
+        <v>177.01653178955092</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="2"/>
-        <v>3843.5401831129184</v>
+        <f t="shared" si="1"/>
+        <v>37.781999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,12 +1057,12 @@
         <v>131.93799999999999</v>
       </c>
       <c r="C33" s="3">
-        <f>(100*B33)/B27</f>
-        <v>13421.973550356053</v>
+        <f>(100*B33)/B32</f>
+        <v>151.93403885351051</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="2"/>
-        <v>4587.894201424213</v>
+        <f t="shared" si="1"/>
+        <v>45.09899999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,6 +1071,14 @@
       </c>
       <c r="B34" s="3">
         <v>185.61500000000001</v>
+      </c>
+      <c r="C34" s="3">
+        <f>(100*B34)/B33</f>
+        <v>140.68350285740274</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="1"/>
+        <v>53.677000000000021</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,6 +1137,9 @@
       <c r="B49" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
